--- a/odds/Family Fantasy 2025 Betting Odds.xlsx
+++ b/odds/Family Fantasy 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="68">
   <si>
     <t>Record</t>
   </si>
@@ -42,12 +42,12 @@
     <t>Oh My Josh</t>
   </si>
   <si>
+    <t>Gabe's Grand Team</t>
+  </si>
+  <si>
     <t>67 Big Backs</t>
   </si>
   <si>
-    <t>Gabe's Grand Team</t>
-  </si>
-  <si>
     <t>For Me to Poop on</t>
   </si>
   <si>
@@ -90,127 +90,133 @@
     <t>100.0%</t>
   </si>
   <si>
-    <t>99.9%</t>
+    <t>99.8%</t>
   </si>
   <si>
     <t>99.4%</t>
   </si>
   <si>
-    <t>99.0%</t>
-  </si>
-  <si>
-    <t>98.1%</t>
-  </si>
-  <si>
-    <t>43.2%</t>
-  </si>
-  <si>
-    <t>39.2%</t>
-  </si>
-  <si>
-    <t>16.5%</t>
+    <t>98.6%</t>
+  </si>
+  <si>
+    <t>98.3%</t>
+  </si>
+  <si>
+    <t>42.3%</t>
+  </si>
+  <si>
+    <t>41.9%</t>
+  </si>
+  <si>
+    <t>14.8%</t>
   </si>
   <si>
     <t>4.2%</t>
   </si>
   <si>
-    <t>0.3%</t>
+    <t>0.6%</t>
+  </si>
+  <si>
+    <t>0.1%</t>
+  </si>
+  <si>
+    <t>-∞</t>
+  </si>
+  <si>
+    <t>-49900</t>
+  </si>
+  <si>
+    <t>-16567</t>
+  </si>
+  <si>
+    <t>-7043</t>
+  </si>
+  <si>
+    <t>-5782</t>
+  </si>
+  <si>
+    <t>+136</t>
+  </si>
+  <si>
+    <t>+139</t>
+  </si>
+  <si>
+    <t>+576</t>
+  </si>
+  <si>
+    <t>+2281</t>
+  </si>
+  <si>
+    <t>+16567</t>
+  </si>
+  <si>
+    <t>+99900</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>80.5%</t>
+  </si>
+  <si>
+    <t>17.5%</t>
+  </si>
+  <si>
+    <t>0.9%</t>
+  </si>
+  <si>
+    <t>0.7%</t>
   </si>
   <si>
     <t>0.2%</t>
   </si>
   <si>
-    <t>-∞</t>
-  </si>
-  <si>
-    <t>-99900</t>
-  </si>
-  <si>
-    <t>-16567</t>
-  </si>
-  <si>
-    <t>-9900</t>
-  </si>
-  <si>
-    <t>-5163</t>
-  </si>
-  <si>
-    <t>+131</t>
-  </si>
-  <si>
-    <t>+155</t>
-  </si>
-  <si>
-    <t>+506</t>
-  </si>
-  <si>
-    <t>+2281</t>
-  </si>
-  <si>
-    <t>+33233</t>
+    <t>0.0%</t>
+  </si>
+  <si>
+    <t>-413</t>
+  </si>
+  <si>
+    <t>+471</t>
+  </si>
+  <si>
+    <t>+11011</t>
+  </si>
+  <si>
+    <t>+14186</t>
   </si>
   <si>
     <t>+49900</t>
   </si>
   <si>
-    <t>Probability</t>
-  </si>
-  <si>
-    <t>80.1%</t>
-  </si>
-  <si>
-    <t>19.0%</t>
-  </si>
-  <si>
-    <t>0.6%</t>
-  </si>
-  <si>
-    <t>0.1%</t>
-  </si>
-  <si>
-    <t>0.0%</t>
-  </si>
-  <si>
-    <t>-403</t>
-  </si>
-  <si>
-    <t>+426</t>
-  </si>
-  <si>
-    <t>+16567</t>
-  </si>
-  <si>
-    <t>+99900</t>
-  </si>
-  <si>
     <t>+∞</t>
   </si>
   <si>
-    <t>45.4%</t>
-  </si>
-  <si>
-    <t>41.5%</t>
-  </si>
-  <si>
-    <t>8.5%</t>
-  </si>
-  <si>
-    <t>3.9%</t>
+    <t>46.8%</t>
+  </si>
+  <si>
+    <t>40.7%</t>
+  </si>
+  <si>
+    <t>8.1%</t>
+  </si>
+  <si>
+    <t>3.4%</t>
   </si>
   <si>
     <t>0.4%</t>
   </si>
   <si>
-    <t>+120</t>
-  </si>
-  <si>
-    <t>+141</t>
-  </si>
-  <si>
-    <t>+1076</t>
-  </si>
-  <si>
-    <t>+2464</t>
+    <t>+114</t>
+  </si>
+  <si>
+    <t>+146</t>
+  </si>
+  <si>
+    <t>+1135</t>
+  </si>
+  <si>
+    <t>+2841</t>
   </si>
   <si>
     <t>+24900</t>
@@ -652,7 +658,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -666,7 +672,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -797,7 +803,7 @@
         <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -811,7 +817,7 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -825,91 +831,91 @@
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -920,10 +926,10 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -934,10 +940,10 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -948,10 +954,10 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -989,10 +995,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1003,10 +1009,10 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1017,10 +1023,10 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1031,52 +1037,52 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1087,24 +1093,24 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1115,10 +1121,10 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1129,10 +1135,10 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1143,10 +1149,10 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/odds/Family Fantasy 2025 Betting Odds.xlsx
+++ b/odds/Family Fantasy 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="50">
   <si>
     <t>Record</t>
   </si>
@@ -33,12 +33,12 @@
     <t>Tortured Cheerleaders Departmnt</t>
   </si>
   <si>
+    <t>Your Mom</t>
+  </si>
+  <si>
     <t>Skibidi Rizzlers</t>
   </si>
   <si>
-    <t>Your Mom</t>
-  </si>
-  <si>
     <t>Oh My Josh</t>
   </si>
   <si>
@@ -51,175 +51,121 @@
     <t>For Me to Poop on</t>
   </si>
   <si>
+    <t>Hormones For You</t>
+  </si>
+  <si>
     <t>Breece Hall Sucks</t>
   </si>
   <si>
-    <t>Hormones For You</t>
+    <t>Numb Nutz - CHAMP</t>
   </si>
   <si>
     <t>Golden Receivers</t>
   </si>
   <si>
-    <t>Numb Nutz - CHAMP</t>
-  </si>
-  <si>
     <t>Rizzly Bears</t>
   </si>
   <si>
-    <t>8-3</t>
-  </si>
-  <si>
-    <t>9-2</t>
-  </si>
-  <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>4-7</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>3-8</t>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>10-2</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>3-9</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>99.8%</t>
-  </si>
-  <si>
-    <t>99.4%</t>
-  </si>
-  <si>
-    <t>98.6%</t>
-  </si>
-  <si>
-    <t>98.3%</t>
-  </si>
-  <si>
-    <t>42.3%</t>
-  </si>
-  <si>
-    <t>41.9%</t>
-  </si>
-  <si>
-    <t>14.8%</t>
+    <t>99.2%</t>
+  </si>
+  <si>
+    <t>98.1%</t>
+  </si>
+  <si>
+    <t>60.9%</t>
+  </si>
+  <si>
+    <t>27.7%</t>
+  </si>
+  <si>
+    <t>14.0%</t>
+  </si>
+  <si>
+    <t>0.1%</t>
+  </si>
+  <si>
+    <t>0.0%</t>
+  </si>
+  <si>
+    <t>-∞</t>
+  </si>
+  <si>
+    <t>-12400</t>
+  </si>
+  <si>
+    <t>-5163</t>
+  </si>
+  <si>
+    <t>-156</t>
+  </si>
+  <si>
+    <t>+261</t>
+  </si>
+  <si>
+    <t>+614</t>
+  </si>
+  <si>
+    <t>+99900</t>
+  </si>
+  <si>
+    <t>+∞</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>99.6%</t>
+  </si>
+  <si>
+    <t>0.4%</t>
+  </si>
+  <si>
+    <t>-24900</t>
+  </si>
+  <si>
+    <t>+24900</t>
+  </si>
+  <si>
+    <t>85.0%</t>
+  </si>
+  <si>
+    <t>10.8%</t>
   </si>
   <si>
     <t>4.2%</t>
   </si>
   <si>
-    <t>0.6%</t>
-  </si>
-  <si>
-    <t>0.1%</t>
-  </si>
-  <si>
-    <t>-∞</t>
-  </si>
-  <si>
-    <t>-49900</t>
-  </si>
-  <si>
-    <t>-16567</t>
-  </si>
-  <si>
-    <t>-7043</t>
-  </si>
-  <si>
-    <t>-5782</t>
-  </si>
-  <si>
-    <t>+136</t>
-  </si>
-  <si>
-    <t>+139</t>
-  </si>
-  <si>
-    <t>+576</t>
+    <t>-567</t>
+  </si>
+  <si>
+    <t>+826</t>
   </si>
   <si>
     <t>+2281</t>
-  </si>
-  <si>
-    <t>+16567</t>
-  </si>
-  <si>
-    <t>+99900</t>
-  </si>
-  <si>
-    <t>Probability</t>
-  </si>
-  <si>
-    <t>80.5%</t>
-  </si>
-  <si>
-    <t>17.5%</t>
-  </si>
-  <si>
-    <t>0.9%</t>
-  </si>
-  <si>
-    <t>0.7%</t>
-  </si>
-  <si>
-    <t>0.2%</t>
-  </si>
-  <si>
-    <t>0.0%</t>
-  </si>
-  <si>
-    <t>-413</t>
-  </si>
-  <si>
-    <t>+471</t>
-  </si>
-  <si>
-    <t>+11011</t>
-  </si>
-  <si>
-    <t>+14186</t>
-  </si>
-  <si>
-    <t>+49900</t>
-  </si>
-  <si>
-    <t>+∞</t>
-  </si>
-  <si>
-    <t>46.8%</t>
-  </si>
-  <si>
-    <t>40.7%</t>
-  </si>
-  <si>
-    <t>8.1%</t>
-  </si>
-  <si>
-    <t>3.4%</t>
-  </si>
-  <si>
-    <t>0.4%</t>
-  </si>
-  <si>
-    <t>+114</t>
-  </si>
-  <si>
-    <t>+146</t>
-  </si>
-  <si>
-    <t>+1135</t>
-  </si>
-  <si>
-    <t>+2841</t>
-  </si>
-  <si>
-    <t>+24900</t>
   </si>
 </sst>
 </file>
@@ -608,7 +554,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -616,13 +562,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -630,13 +576,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -644,13 +590,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -661,10 +607,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -675,10 +621,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -689,10 +635,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -700,13 +646,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -717,10 +663,10 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -728,13 +674,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -742,13 +688,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -759,10 +705,10 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -786,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -794,16 +740,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -814,66 +760,66 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -881,83 +827,83 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -981,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -995,38 +941,38 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1037,24 +983,24 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1062,55 +1008,55 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1118,27 +1064,27 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1146,13 +1092,13 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/odds/Family Fantasy 2025 Betting Odds.xlsx
+++ b/odds/Family Fantasy 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="40">
   <si>
     <t>Record</t>
   </si>
@@ -30,9 +30,15 @@
     <t>Team</t>
   </si>
   <si>
+    <t>67 Big Backs</t>
+  </si>
+  <si>
     <t>Tortured Cheerleaders Departmnt</t>
   </si>
   <si>
+    <t>Gabe's Grand Team</t>
+  </si>
+  <si>
     <t>Your Mom</t>
   </si>
   <si>
@@ -42,67 +48,55 @@
     <t>Oh My Josh</t>
   </si>
   <si>
-    <t>Gabe's Grand Team</t>
-  </si>
-  <si>
-    <t>67 Big Backs</t>
+    <t>Hormones For You</t>
   </si>
   <si>
     <t>For Me to Poop on</t>
   </si>
   <si>
-    <t>Hormones For You</t>
-  </si>
-  <si>
     <t>Breece Hall Sucks</t>
   </si>
   <si>
+    <t>Golden Receivers</t>
+  </si>
+  <si>
+    <t>Rizzly Bears</t>
+  </si>
+  <si>
     <t>Numb Nutz - CHAMP</t>
   </si>
   <si>
-    <t>Golden Receivers</t>
-  </si>
-  <si>
-    <t>Rizzly Bears</t>
-  </si>
-  <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>10-2</t>
-  </si>
-  <si>
-    <t>7-5</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>4-8</t>
-  </si>
-  <si>
-    <t>3-9</t>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>11-2</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>3-10</t>
+  </si>
+  <si>
+    <t>4-9</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>99.2%</t>
-  </si>
-  <si>
-    <t>98.1%</t>
-  </si>
-  <si>
-    <t>60.9%</t>
-  </si>
-  <si>
-    <t>27.7%</t>
-  </si>
-  <si>
-    <t>14.0%</t>
+    <t>63.3%</t>
+  </si>
+  <si>
+    <t>28.8%</t>
+  </si>
+  <si>
+    <t>7.8%</t>
   </si>
   <si>
     <t>0.1%</t>
@@ -114,19 +108,13 @@
     <t>-∞</t>
   </si>
   <si>
-    <t>-12400</t>
-  </si>
-  <si>
-    <t>-5163</t>
-  </si>
-  <si>
-    <t>-156</t>
-  </si>
-  <si>
-    <t>+261</t>
-  </si>
-  <si>
-    <t>+614</t>
+    <t>-172</t>
+  </si>
+  <si>
+    <t>+247</t>
+  </si>
+  <si>
+    <t>+1182</t>
   </si>
   <si>
     <t>+99900</t>
@@ -138,34 +126,16 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>99.6%</t>
-  </si>
-  <si>
-    <t>0.4%</t>
-  </si>
-  <si>
-    <t>-24900</t>
-  </si>
-  <si>
-    <t>+24900</t>
-  </si>
-  <si>
-    <t>85.0%</t>
-  </si>
-  <si>
-    <t>10.8%</t>
-  </si>
-  <si>
-    <t>4.2%</t>
-  </si>
-  <si>
-    <t>-567</t>
-  </si>
-  <si>
-    <t>+826</t>
-  </si>
-  <si>
-    <t>+2281</t>
+    <t>90.5%</t>
+  </si>
+  <si>
+    <t>9.5%</t>
+  </si>
+  <si>
+    <t>-953</t>
+  </si>
+  <si>
+    <t>+953</t>
   </si>
 </sst>
 </file>
@@ -554,7 +524,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -562,13 +532,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -576,13 +546,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -590,13 +560,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -607,10 +577,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -618,13 +588,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -632,13 +602,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -649,10 +619,10 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -663,10 +633,10 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -674,13 +644,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -691,10 +661,10 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -705,10 +675,10 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -732,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -740,44 +710,44 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -788,122 +758,122 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -927,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -935,170 +905,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/odds/Family Fantasy 2025 Betting Odds.xlsx
+++ b/odds/Family Fantasy 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="29">
   <si>
     <t>Record</t>
   </si>
@@ -45,97 +45,64 @@
     <t>Skibidi Rizzlers</t>
   </si>
   <si>
+    <t>For Me to Poop on</t>
+  </si>
+  <si>
     <t>Oh My Josh</t>
   </si>
   <si>
+    <t>Breece Hall Sucks</t>
+  </si>
+  <si>
+    <t>Golden Receivers</t>
+  </si>
+  <si>
+    <t>Rizzly Bears</t>
+  </si>
+  <si>
     <t>Hormones For You</t>
   </si>
   <si>
-    <t>For Me to Poop on</t>
-  </si>
-  <si>
-    <t>Breece Hall Sucks</t>
-  </si>
-  <si>
-    <t>Golden Receivers</t>
-  </si>
-  <si>
-    <t>Rizzly Bears</t>
-  </si>
-  <si>
     <t>Numb Nutz - CHAMP</t>
   </si>
   <si>
-    <t>7-6</t>
-  </si>
-  <si>
-    <t>9-4</t>
-  </si>
-  <si>
-    <t>11-2</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>5-8</t>
-  </si>
-  <si>
-    <t>3-10</t>
-  </si>
-  <si>
-    <t>4-9</t>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>11-3</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>3-11</t>
+  </si>
+  <si>
+    <t>4-10</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>63.3%</t>
-  </si>
-  <si>
-    <t>28.8%</t>
-  </si>
-  <si>
-    <t>7.8%</t>
-  </si>
-  <si>
-    <t>0.1%</t>
-  </si>
-  <si>
     <t>0.0%</t>
   </si>
   <si>
     <t>-∞</t>
   </si>
   <si>
-    <t>-172</t>
-  </si>
-  <si>
-    <t>+247</t>
-  </si>
-  <si>
-    <t>+1182</t>
-  </si>
-  <si>
-    <t>+99900</t>
-  </si>
-  <si>
     <t>+∞</t>
   </si>
   <si>
     <t>Probability</t>
-  </si>
-  <si>
-    <t>90.5%</t>
-  </si>
-  <si>
-    <t>9.5%</t>
-  </si>
-  <si>
-    <t>-953</t>
-  </si>
-  <si>
-    <t>+953</t>
   </si>
 </sst>
 </file>
@@ -521,10 +488,10 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -535,10 +502,10 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -549,10 +516,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -560,13 +527,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -574,13 +541,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -588,13 +555,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -602,13 +569,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -622,7 +589,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -630,13 +597,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -644,13 +611,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -658,13 +625,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -672,13 +639,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -702,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -713,55 +680,55 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -772,24 +739,24 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -800,10 +767,10 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -814,10 +781,10 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -825,13 +792,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -839,41 +806,41 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -897,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -905,30 +872,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -936,83 +903,83 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1020,13 +987,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1034,41 +1001,41 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
